--- a/data/trans_camb/P15_2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P15_2-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,9 +526,6 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,23 +542,20 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +577,32 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M2/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M3/M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>M2/M1</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>M3/M1</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>M4/M1</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
         </is>
       </c>
     </row>
@@ -639,9 +618,6 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -661,57 +637,42 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,67</t>
+          <t>-1,05</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>-1,05</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>0,13</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>0,24</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>1,43</t>
+          <t>-0,06</t>
         </is>
       </c>
     </row>
@@ -729,57 +690,42 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,2; 2,29</t>
+          <t>0,0; 2,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,33</t>
+          <t>0,0; 1,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,6; 3,89</t>
+          <t>-6,2; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 2,27</t>
+          <t>-6,36; 0,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 0,0</t>
+          <t>-5,06; 1,05</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 1,28</t>
+          <t>-2,86; 0,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 2,88</t>
+          <t>-2,32; 0,48</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 1,22</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-0,47; 0,61</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-0,37; 0,84</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>0,54; 2,62</t>
+          <t>-2,35; 0,71</t>
         </is>
       </c>
     </row>
@@ -807,47 +753,32 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>60,24%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
+          <t>-33,26%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>67,82%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>377,91%</t>
+          <t>-45,09%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>58,88%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>72,01%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>128,23%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>764,72%</t>
+          <t>-9,92%</t>
         </is>
       </c>
     </row>
@@ -903,21 +834,6 @@
           <t>—; —</t>
         </is>
       </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -932,7 +848,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -942,52 +858,37 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,44</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,24</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>0,14</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>0,45</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>1,79</t>
+          <t>0,47</t>
         </is>
       </c>
     </row>
@@ -1000,7 +901,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -1010,52 +911,37 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,52</t>
+          <t>0,0; 1,53</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,53; 3,19</t>
+          <t>0,0; 1,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 0,5</t>
+          <t>0,14; 1,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 0,95</t>
+          <t>0,21; 1,56</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,02; 1,54</t>
+          <t>0,0; 0,63</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,04; 4,05</t>
+          <t>0,07; 0,69</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 0,42</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-0,05; 0,46</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>0,11; 1,1</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>1,12; 2,98</t>
+          <t>0,17; 1,05</t>
         </is>
       </c>
     </row>
@@ -1068,62 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>32,76%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>262,8%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>449,93%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>2080,09%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>160,75%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>254,57%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>835,62%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>3324,55%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1179,21 +1050,6 @@
           <t>—; —</t>
         </is>
       </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1208,62 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>0,44</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,72</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,28</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-0,06</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>0,57</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,55</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,27</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>4,02</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-0,16</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>2,05</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>0,5</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>0,01</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>3,0</t>
+          <t>0,09</t>
         </is>
       </c>
     </row>
@@ -1276,62 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,05</t>
+          <t>0,0; 2,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,92</t>
+          <t>0,0; 2,36</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,98</t>
+          <t>0,0; 0,96</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,87; 7,7</t>
+          <t>-1,72; 0,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 0,94</t>
+          <t>-0,79; 1,84</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 1,68</t>
+          <t>-1,76; 0,59</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 0,56</t>
+          <t>-0,48; 1,01</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,15; 5,98</t>
+          <t>-0,09; 1,51</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 0,97</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-0,19; 1,35</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>-0,46; 0,5</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>1,5; 5,25</t>
+          <t>-0,57; 0,55</t>
         </is>
       </c>
     </row>
@@ -1359,47 +1185,32 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-14,87%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-25,08%</t>
+          <t>129,61%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>65,49%</t>
+          <t>-17,83%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-41,62%</t>
+          <t>72,56%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>320,72%</t>
+          <t>270,05%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>67,54%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>158,38%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>3,63%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>959,49%</t>
+          <t>36,88%</t>
         </is>
       </c>
     </row>
@@ -1447,34 +1258,19 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-62,15; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>-55,67; 1286,34</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>162,47; 5250,85</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1484,62 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,03</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1,85</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>0,26</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>0,27</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>1,94</t>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,07; 0,72</t>
+          <t>0,0; 1,19</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,1; 0,73</t>
+          <t>0,0; 1,51</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,1; 0,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,21; 3,09</t>
+          <t>-0,38; 1,01</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 0,53</t>
+          <t>-0,38; 1,22</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 0,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 0,73</t>
+          <t>-0,1; 0,68</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,09; 3,31</t>
+          <t>-0,14; 0,83</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 0,44</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>-0,0; 0,53</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>0,03; 0,58</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>1,37; 2,75</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1630,52 +1396,37 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>37,29%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>9,26%</t>
+          <t>4,36%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>60,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>67,98%</t>
+          <t>159,72%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>607,04%</t>
+          <t>106,61%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>87,76%</t>
-        </is>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>164,33%</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="inlineStr">
-        <is>
-          <t>175,16%</t>
-        </is>
-      </c>
-      <c r="N18" s="2" t="inlineStr">
-        <is>
-          <t>1242,19%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1708,54 +1459,263 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-81,2; 639,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-58,89; 500,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-47,53; 691,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>181,03; 2385,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-53,65; 625,13</t>
-        </is>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>-21,16; 737,15</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="inlineStr">
-        <is>
-          <t>-14,4; 872,21</t>
-        </is>
-      </c>
-      <c r="N19" s="2" t="inlineStr">
-        <is>
-          <t>455,65; 3837,22</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0,24</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0,35</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0,33</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-0,01</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0,19</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0,23</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0,27</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0,28</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0,07; 0,65</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0,12; 0,91</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0,1; 0,76</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-0,43; 0,38</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-0,26; 0,65</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-0,19; 0,76</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-0,11; 0,38</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0,01; 0,58</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0,01; 0,58</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-2,3%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>61,35%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>75,2%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>72,05%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>172,3%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>177,26%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-88,34; 284,53</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-62,84; 491,32</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-51,17; 571,73</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-55,64; 588,49</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-12,97; 850,06</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-11,23; 954,83</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
